--- a/excel/sample/sample_article.xlsx
+++ b/excel/sample/sample_article.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
   <si>
     <t>项目ID</t>
   </si>
@@ -55,9 +55,6 @@
   </si>
   <si>
     <t>测试导入1</t>
-  </si>
-  <si>
-    <t>站位优化</t>
   </si>
   <si>
     <t>测试导入2</t>
@@ -78,11 +75,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,16 +96,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -122,50 +119,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -175,24 +128,61 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -206,14 +196,23 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,17 +225,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,13 +241,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -269,25 +379,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -299,139 +421,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,16 +436,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -465,32 +455,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -512,9 +476,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -529,16 +495,40 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -547,148 +537,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1053,7 +1043,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="5"/>
@@ -1131,16 +1121,16 @@
         <v>2001150</v>
       </c>
       <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
         <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>10</v>
@@ -1151,16 +1141,16 @@
         <v>2001151</v>
       </c>
       <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
         <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>10</v>
